--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Fzd1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H2">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.741242404255645</v>
+        <v>0.757644</v>
       </c>
       <c r="N2">
-        <v>0.741242404255645</v>
+        <v>2.272932</v>
       </c>
       <c r="O2">
-        <v>0.02516332029267759</v>
+        <v>0.02401898721285653</v>
       </c>
       <c r="P2">
-        <v>0.02516332029267759</v>
+        <v>0.02518910262217759</v>
       </c>
       <c r="Q2">
-        <v>3.66121129347382</v>
+        <v>0.04916149877600001</v>
       </c>
       <c r="R2">
-        <v>3.66121129347382</v>
+        <v>0.442453488984</v>
       </c>
       <c r="S2">
-        <v>0.02516332029267759</v>
+        <v>0.0002686811783400995</v>
       </c>
       <c r="T2">
-        <v>0.02516332029267759</v>
+        <v>0.000283018266790459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H3">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4661461876977</v>
+        <v>25.23919433333333</v>
       </c>
       <c r="N3">
-        <v>23.4661461876977</v>
+        <v>75.717583</v>
       </c>
       <c r="O3">
-        <v>0.7966168006116678</v>
+        <v>0.8001381730141521</v>
       </c>
       <c r="P3">
-        <v>0.7966168006116678</v>
+        <v>0.8391179183936208</v>
       </c>
       <c r="Q3">
-        <v>115.906104323567</v>
+        <v>1.637704015771778</v>
       </c>
       <c r="R3">
-        <v>115.906104323567</v>
+        <v>14.739336141946</v>
       </c>
       <c r="S3">
-        <v>0.7966168006116678</v>
+        <v>0.008950505083963922</v>
       </c>
       <c r="T3">
-        <v>0.7966168006116678</v>
+        <v>0.00942811272234397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H4">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.494130275780154</v>
+        <v>0.6151326666666667</v>
       </c>
       <c r="N4">
-        <v>0.494130275780154</v>
+        <v>1.845398</v>
       </c>
       <c r="O4">
-        <v>0.01677448338678262</v>
+        <v>0.0195010633686494</v>
       </c>
       <c r="P4">
-        <v>0.01677448338678262</v>
+        <v>0.02045108239083319</v>
       </c>
       <c r="Q4">
-        <v>2.440652795559295</v>
+        <v>0.03991431838622223</v>
       </c>
       <c r="R4">
-        <v>2.440652795559295</v>
+        <v>0.359228865476</v>
       </c>
       <c r="S4">
-        <v>0.01677448338678262</v>
+        <v>0.0002181427817226661</v>
       </c>
       <c r="T4">
-        <v>0.01677448338678262</v>
+        <v>0.0002297830922784225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H5">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5065132849578</v>
+        <v>0.5356743333333333</v>
       </c>
       <c r="N5">
-        <v>0.5065132849578</v>
+        <v>1.607023</v>
       </c>
       <c r="O5">
-        <v>0.01719485548683426</v>
+        <v>0.01698205880675987</v>
       </c>
       <c r="P5">
-        <v>0.01719485548683426</v>
+        <v>0.01780936132853939</v>
       </c>
       <c r="Q5">
-        <v>2.501816070606834</v>
+        <v>0.03475847902511111</v>
       </c>
       <c r="R5">
-        <v>2.501816070606834</v>
+        <v>0.312826311226</v>
       </c>
       <c r="S5">
-        <v>0.01719485548683426</v>
+        <v>0.0001899646946145514</v>
       </c>
       <c r="T5">
-        <v>0.01719485548683426</v>
+        <v>0.0002001013950933876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.194662</v>
+      </c>
+      <c r="I6">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J6">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N6">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P6">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q6">
+        <v>0.2852381961563334</v>
+      </c>
+      <c r="R6">
+        <v>1.711429176938</v>
+      </c>
+      <c r="S6">
+        <v>0.001558905577718103</v>
+      </c>
+      <c r="T6">
+        <v>0.001094726861582349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.977119</v>
+      </c>
+      <c r="I7">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J7">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.757644</v>
+      </c>
+      <c r="N7">
+        <v>2.272932</v>
+      </c>
+      <c r="O7">
+        <v>0.02401898721285653</v>
+      </c>
+      <c r="P7">
+        <v>0.02518910262217759</v>
+      </c>
+      <c r="Q7">
+        <v>4.287537449212</v>
+      </c>
+      <c r="R7">
+        <v>38.58783704290801</v>
+      </c>
+      <c r="S7">
+        <v>0.02343257717346011</v>
+      </c>
+      <c r="T7">
+        <v>0.02468296223441335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H8">
+        <v>16.977119</v>
+      </c>
+      <c r="I8">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J8">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>25.23919433333333</v>
+      </c>
+      <c r="N8">
+        <v>75.717583</v>
+      </c>
+      <c r="O8">
+        <v>0.8001381730141521</v>
+      </c>
+      <c r="P8">
+        <v>0.8391179183936208</v>
+      </c>
+      <c r="Q8">
+        <v>142.8296018870419</v>
+      </c>
+      <c r="R8">
+        <v>1285.466416983377</v>
+      </c>
+      <c r="S8">
+        <v>0.7806032503547714</v>
+      </c>
+      <c r="T8">
+        <v>0.8222569974244976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H9">
+        <v>16.977119</v>
+      </c>
+      <c r="I9">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J9">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6151326666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.845398</v>
+      </c>
+      <c r="O9">
+        <v>0.0195010633686494</v>
+      </c>
+      <c r="P9">
+        <v>0.02045108239083319</v>
+      </c>
+      <c r="Q9">
+        <v>3.481060160929112</v>
+      </c>
+      <c r="R9">
+        <v>31.329541448362</v>
+      </c>
+      <c r="S9">
+        <v>0.01902495589430258</v>
+      </c>
+      <c r="T9">
+        <v>0.02004014600589104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H10">
+        <v>16.977119</v>
+      </c>
+      <c r="I10">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J10">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5356743333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.607023</v>
+      </c>
+      <c r="O10">
+        <v>0.01698205880675987</v>
+      </c>
+      <c r="P10">
+        <v>0.01780936132853939</v>
+      </c>
+      <c r="Q10">
+        <v>3.031402300748556</v>
+      </c>
+      <c r="R10">
+        <v>27.282620706737</v>
+      </c>
+      <c r="S10">
+        <v>0.0165674514094682</v>
+      </c>
+      <c r="T10">
+        <v>0.01745150669656357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H11">
+        <v>16.977119</v>
+      </c>
+      <c r="I11">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J11">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N11">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P11">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q11">
+        <v>24.87656964118017</v>
+      </c>
+      <c r="R11">
+        <v>149.259417847081</v>
+      </c>
+      <c r="S11">
+        <v>0.1359573286141311</v>
+      </c>
+      <c r="T11">
+        <v>0.09547476241680486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0767325</v>
+      </c>
+      <c r="H12">
+        <v>0.153465</v>
+      </c>
+      <c r="I12">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J12">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.757644</v>
+      </c>
+      <c r="N12">
+        <v>2.272932</v>
+      </c>
+      <c r="O12">
+        <v>0.02401898721285653</v>
+      </c>
+      <c r="P12">
+        <v>0.02518910262217759</v>
+      </c>
+      <c r="Q12">
+        <v>0.05813591822999999</v>
+      </c>
+      <c r="R12">
+        <v>0.3488155093799999</v>
+      </c>
+      <c r="S12">
+        <v>0.0003177288610563184</v>
+      </c>
+      <c r="T12">
+        <v>0.0002231221209737791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0767325</v>
+      </c>
+      <c r="H13">
+        <v>0.153465</v>
+      </c>
+      <c r="I13">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J13">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>25.23919433333333</v>
+      </c>
+      <c r="N13">
+        <v>75.717583</v>
+      </c>
+      <c r="O13">
+        <v>0.8001381730141521</v>
+      </c>
+      <c r="P13">
+        <v>0.8391179183936208</v>
+      </c>
+      <c r="Q13">
+        <v>1.9366664791825</v>
+      </c>
+      <c r="R13">
+        <v>11.619998875095</v>
+      </c>
+      <c r="S13">
+        <v>0.0105844175754168</v>
+      </c>
+      <c r="T13">
+        <v>0.007432808246779121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0767325</v>
+      </c>
+      <c r="H14">
+        <v>0.153465</v>
+      </c>
+      <c r="I14">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J14">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6151326666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.845398</v>
+      </c>
+      <c r="O14">
+        <v>0.0195010633686494</v>
+      </c>
+      <c r="P14">
+        <v>0.02045108239083319</v>
+      </c>
+      <c r="Q14">
+        <v>0.047200667345</v>
+      </c>
+      <c r="R14">
+        <v>0.28320400407</v>
+      </c>
+      <c r="S14">
+        <v>0.0002579646926241558</v>
+      </c>
+      <c r="T14">
+        <v>0.0001811532926637356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="H6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.24922530118068</v>
-      </c>
-      <c r="N6">
-        <v>4.24922530118068</v>
-      </c>
-      <c r="O6">
-        <v>0.1442505402220377</v>
-      </c>
-      <c r="P6">
-        <v>0.1442505402220377</v>
-      </c>
-      <c r="Q6">
-        <v>20.98815660285928</v>
-      </c>
-      <c r="R6">
-        <v>20.98815660285928</v>
-      </c>
-      <c r="S6">
-        <v>0.1442505402220377</v>
-      </c>
-      <c r="T6">
-        <v>0.1442505402220377</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0767325</v>
+      </c>
+      <c r="H15">
+        <v>0.153465</v>
+      </c>
+      <c r="I15">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J15">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5356743333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.607023</v>
+      </c>
+      <c r="O15">
+        <v>0.01698205880675987</v>
+      </c>
+      <c r="P15">
+        <v>0.01780936132853939</v>
+      </c>
+      <c r="Q15">
+        <v>0.04110363078249999</v>
+      </c>
+      <c r="R15">
+        <v>0.246621784695</v>
+      </c>
+      <c r="S15">
+        <v>0.0002246427026771183</v>
+      </c>
+      <c r="T15">
+        <v>0.0001577532368824256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0767325</v>
+      </c>
+      <c r="H16">
+        <v>0.153465</v>
+      </c>
+      <c r="I16">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J16">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.395899500000001</v>
+      </c>
+      <c r="N16">
+        <v>8.791799000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.139359717597582</v>
+      </c>
+      <c r="P16">
+        <v>0.09743253526482902</v>
+      </c>
+      <c r="Q16">
+        <v>0.33730835838375</v>
+      </c>
+      <c r="R16">
+        <v>1.349233433535</v>
+      </c>
+      <c r="S16">
+        <v>0.001843483405732824</v>
+      </c>
+      <c r="T16">
+        <v>0.0008630459864418077</v>
       </c>
     </row>
   </sheetData>
